--- a/biology/Zoologie/Deraeocoris/Deraeocoris.xlsx
+++ b/biology/Zoologie/Deraeocoris/Deraeocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deraeocoris est un genre d'insectes hémiptères prédateurs du sous-ordre des hétéroptères (punaises), de la famille des Miridae, de la sous-famille des Deraeocorinae, de la tribu des Deraeocorini.
 Les larves et les adultes ont pour proies principalement les acariens, les psylles, les pucerons et les thrips sur les arbres fruitiers, la vigne et les cultures légumières.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Deraeocoris a été décrit par l'entomologiste allemand Carl Ludwig Kirschbaum en 1856[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Deraeocoris a été décrit par l'entomologiste allemand Carl Ludwig Kirschbaum en 1856.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Espèces rencontrées en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deraeocoris (Camptobrochis) pallens (Reuter, 1904)
 Deraeocoris (Camptobrochis) pallens pallens (Reuter, 1904)
@@ -595,9 +611,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2019)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (4 octobre 2019) :
 Deraeocoris addendus Linnavuori, 1960
 Deraeocoris africanus Poppius, 1914
 Deraeocoris ainoicus Kerzhner, 1979
